--- a/Sur_summer2024.xlsx
+++ b/Sur_summer2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcscomprod-my.sharepoint.com/personal/219940_tcs_com/Documents/doc/excel/Sury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="8_{92FE37DF-1750-48BF-AB9A-00220C0E4840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D413EB7-3542-459D-9087-6DE67106CEB9}"/>
+  <xr:revisionPtr revIDLastSave="1004" documentId="8_{92FE37DF-1750-48BF-AB9A-00220C0E4840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51333EE-2CBC-4ADD-9A9A-8A9403205C0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B14F3655-521D-4299-8421-F0A3E8B7D35F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="75">
   <si>
     <t>Subject</t>
   </si>
@@ -188,6 +188,84 @@
   </si>
   <si>
     <t>Eng Grammar</t>
+  </si>
+  <si>
+    <t>FRICTION</t>
+  </si>
+  <si>
+    <t>Direct and Inverse Proportions</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Any subject backlog</t>
+  </si>
+  <si>
+    <t>Backlog completion</t>
+  </si>
+  <si>
+    <t>Class 10</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>Factorisation</t>
+  </si>
+  <si>
+    <t>CHEMICAL EFFECTS OF ELECTRIC CURRENT</t>
+  </si>
+  <si>
+    <t>Introduction to Graphs</t>
+  </si>
+  <si>
+    <t>class 10</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Class 9</t>
+  </si>
+  <si>
+    <t>BMA</t>
+  </si>
+  <si>
+    <t>Qs solving</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>Chapter 2</t>
+  </si>
+  <si>
+    <t>Chapter 3</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Chapter 5</t>
+  </si>
+  <si>
+    <t>Chapter 6</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t>Chapter 9</t>
+  </si>
+  <si>
+    <t>Chapter 10</t>
   </si>
 </sst>
 </file>
@@ -636,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9DFBD-4970-47A3-8B8F-D48E011CFEFD}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +726,7 @@
     <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
@@ -3441,6 +3519,2157 @@
       </c>
       <c r="I105" s="2"/>
     </row>
+    <row r="106" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B106" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C106" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B107" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C107" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B108" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C108" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B109" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C109" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B110" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B111" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C111" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C113" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B114" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C114" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C115" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B116" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C116" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B117" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C117" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B118" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C118" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B119" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C119" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B120" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C120" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B122" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C122" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>45448</v>
+      </c>
+      <c r="B123" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C123" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B124" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C124" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B125" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B126" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C126" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B127" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C127" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B128" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B129" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C129" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B131" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C131" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>45449</v>
+      </c>
+      <c r="B132" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C132" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B133" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C133" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B134" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C134" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B135" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B136" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B137" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C137" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B138" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B140" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C140" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>45450</v>
+      </c>
+      <c r="B141" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C141" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B142" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C142" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B143" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C143" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B144" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C144" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B145" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C145" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B146" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C146" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B147" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C147" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B149" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C149" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>45451</v>
+      </c>
+      <c r="B150" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C150" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B151" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C151" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B152" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C152" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B153" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C153" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B154" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C154" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B155" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B156" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C156" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B158" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B159" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B160" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C160" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B161" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C161" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B162" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C162" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B163" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C163" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B164" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C164" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B165" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C165" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B167" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C167" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>45453</v>
+      </c>
+      <c r="B168" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C168" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B169" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C169" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B170" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C170" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B171" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C171" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B172" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C172" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B173" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C173" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B174" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C174" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B176" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C176" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B177" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C177" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B178" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C178" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B179" s="7">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C179" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B180" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C180" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B181" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C181" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B182" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C182" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B183" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C183" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B185" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C185" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>45455</v>
+      </c>
+      <c r="B186" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="C186" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I186" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
